--- a/data/MATERIALS_MUNICIPAL_WASTE_STREAM_1960_TO_2015.XLSX
+++ b/data/MATERIALS_MUNICIPAL_WASTE_STREAM_1960_TO_2015.XLSX
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Nicholas\experiments\landfill\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Nicholas\Documents\GitHub\lmop-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE85B646-5CD2-4CD0-9263-66764EB06444}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7E0EA-2DE1-4C3E-8272-204D13458B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="895" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="895" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials generated" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="143">
   <si>
     <t>Materials</t>
   </si>
@@ -268,15 +268,6 @@
     <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Corrugated Boxes</t>
   </si>
   <si>
-    <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Other Paper &amp; Paperboard Pkg-Gable Top/Aseptic Cartons</t>
-  </si>
-  <si>
-    <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Other Paper &amp; Paperboard Pkg- Folding Cartons</t>
-  </si>
-  <si>
-    <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Other Paper &amp; Paperboard Pkg- Other Paperboard Packaging</t>
-  </si>
-  <si>
     <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Other Paper &amp; Paperboard Pkg – Bags and Sacks</t>
   </si>
   <si>
@@ -401,6 +392,78 @@
   </si>
   <si>
     <t>Table 28 Products Landfilled with Detail on Containers and Packaging in the U.S. Municipal Waste Stream, 1960 to 2015 (in tons)</t>
+  </si>
+  <si>
+    <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Other Paper &amp; Paperboard Pkg – Other Paperboard Packaging</t>
+  </si>
+  <si>
+    <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Other Paper &amp; Paperboard Pkg – Folding Cartons</t>
+  </si>
+  <si>
+    <t>Products – Containers and Packaging – Paper &amp; Paperboard Pkg – Other Paper &amp; Paperboard Pkg – Gable Top/Aseptic Cartons</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Newspapers/Mechanical Papers</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Directories</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - books and magazines</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - books</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - magazines</t>
+  </si>
+  <si>
+    <t>Products -  Nondurable goods - Other paper nondurable goods - office-type papers</t>
+  </si>
+  <si>
+    <t>Products -  Nondurable goods - Other paper nondurable goods - standard mail</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - other commercial printing</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - tissue paper and towels</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - paper plates and cups</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - other nonpackaging paper</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other paper nondurable goods - Total</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Disposable Diapers</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Plastic Plates and Cups</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Trash Bags</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Clothing and Footwear</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Towels, Sheets and Pillowcases</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Other Miscellaneous Nondurables</t>
+  </si>
+  <si>
+    <t>Products - Nondurable goods - Total</t>
+  </si>
+  <si>
+    <t>Products - Wastes -Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total MSW Landfilled - Weight </t>
   </si>
 </sst>
 </file>
@@ -1669,7 +1732,7 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
@@ -1694,7 +1757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J25" sqref="J25:L25"/>
     </sheetView>
   </sheetViews>
@@ -2690,7 +2753,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1">
         <v>5610000</v>
@@ -2736,7 +2799,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2748,7 +2811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25:L25"/>
     </sheetView>
   </sheetViews>
@@ -3746,7 +3809,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B25" s="15">
         <v>0</v>
@@ -3793,7 +3856,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3806,8 +3869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:L25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3906,7 +3969,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>122</v>
       </c>
       <c r="B3" s="1">
         <v>5290000</v>
@@ -3947,7 +4010,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>123</v>
       </c>
       <c r="B4" s="1">
         <v>0</v>
@@ -3988,7 +4051,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="B5" s="1">
         <v>1820000</v>
@@ -4029,7 +4092,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>125</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
@@ -4070,7 +4133,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>43</v>
+        <v>126</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -4111,7 +4174,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="B8" s="1">
         <v>1270000</v>
@@ -4152,7 +4215,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>45</v>
+        <v>128</v>
       </c>
       <c r="B9" s="1">
         <v>0</v>
@@ -4193,7 +4256,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="B10" s="1">
         <v>1130000</v>
@@ -4234,7 +4297,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
       <c r="B11" s="1">
         <v>1090000</v>
@@ -4275,7 +4338,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="B12" s="1">
         <v>270000</v>
@@ -4316,7 +4379,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="B13" s="1">
         <v>2660000</v>
@@ -4357,7 +4420,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>133</v>
       </c>
       <c r="B14" s="1">
         <v>8240000</v>
@@ -4398,7 +4461,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>134</v>
       </c>
       <c r="B15" s="1">
         <v>0</v>
@@ -4439,7 +4502,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>135</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -4480,7 +4543,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1">
         <v>0</v>
@@ -4521,7 +4584,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
       <c r="B18" s="1">
         <v>1310000</v>
@@ -4562,7 +4625,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="B19" s="1">
         <v>0</v>
@@ -4603,7 +4666,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>56</v>
+        <v>139</v>
       </c>
       <c r="B20" s="1">
         <v>100000</v>
@@ -4644,7 +4707,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
       <c r="B21" s="1">
         <v>14940000</v>
@@ -4685,7 +4748,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="B22" s="1">
         <v>24500000</v>
@@ -4726,7 +4789,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="B23" s="1">
         <v>49010000</v>
@@ -4767,7 +4830,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
         <v>33500000</v>
@@ -4808,7 +4871,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B25" s="1">
         <v>82510000</v>
@@ -4849,7 +4912,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4861,8 +4924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:L39"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -5535,8 +5598,8 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>77</v>
+      <c r="A17" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
@@ -5576,8 +5639,8 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>78</v>
+      <c r="A18" s="19" t="s">
+        <v>120</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -5617,8 +5680,8 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>79</v>
+      <c r="A19" s="19" t="s">
+        <v>119</v>
       </c>
       <c r="B19" s="4">
         <v>3840000</v>
@@ -5659,7 +5722,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -5700,7 +5763,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -5741,7 +5804,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="4">
         <v>2940000</v>
@@ -5782,7 +5845,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="7">
         <v>6780000</v>
@@ -5823,7 +5886,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="4">
         <v>14110000</v>
@@ -5864,7 +5927,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" s="7">
         <v>0</v>
@@ -5905,7 +5968,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
@@ -5946,7 +6009,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="4">
         <v>60000</v>
@@ -5987,7 +6050,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="7">
         <v>0</v>
@@ -6028,7 +6091,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="4">
         <v>60000</v>
@@ -6069,7 +6132,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="4">
         <v>120000</v>
@@ -6110,7 +6173,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="4">
         <v>2000000</v>
@@ -6151,7 +6214,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="4">
         <v>120000</v>
@@ -6192,7 +6255,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="4">
         <v>27370000</v>
@@ -6274,7 +6337,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="4">
         <v>12200000</v>
@@ -6315,7 +6378,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" s="4">
         <v>20000000</v>
@@ -6356,7 +6419,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="4">
         <v>1300000</v>
@@ -6397,7 +6460,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="4">
         <v>33500000</v>
@@ -6438,7 +6501,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="4">
         <v>88120000</v>
@@ -6505,7 +6568,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B42" s="14"/>
       <c r="C42" s="14"/>
@@ -6528,8 +6591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39:L39"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -7198,7 +7261,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B17" s="19">
         <v>0</v>
@@ -7239,7 +7302,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B18" s="19">
         <v>0</v>
@@ -7280,7 +7343,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B19" s="19">
         <v>0</v>
@@ -7321,7 +7384,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
@@ -7362,7 +7425,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="19">
         <v>0</v>
@@ -7403,7 +7466,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="19">
         <v>220000</v>
@@ -7444,7 +7507,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="19">
         <v>220000</v>
@@ -7485,7 +7548,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="19">
         <v>2740000</v>
@@ -7526,7 +7589,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" s="19">
         <v>0</v>
@@ -7567,7 +7630,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" s="19">
         <v>0</v>
@@ -7608,7 +7671,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="19">
         <v>0</v>
@@ -7649,7 +7712,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
@@ -7690,7 +7753,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="19">
         <v>0</v>
@@ -7731,7 +7794,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="19">
         <v>0</v>
@@ -7772,7 +7835,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="19">
         <v>0</v>
@@ -7813,7 +7876,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="19">
         <v>0</v>
@@ -7854,7 +7917,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="19">
         <v>2870000</v>
@@ -7936,7 +7999,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="19">
         <v>0</v>
@@ -7977,7 +8040,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" s="19">
         <v>0</v>
@@ -8018,7 +8081,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="19">
         <v>0</v>
@@ -8059,7 +8122,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="19">
         <v>0</v>
@@ -8100,7 +8163,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B39" s="19">
         <v>5610000</v>
@@ -8141,7 +8204,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H42" s="22"/>
       <c r="J42" s="19"/>
@@ -8156,8 +8219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8824,7 +8887,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B17" s="15">
         <v>0</v>
@@ -8865,7 +8928,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B18" s="15">
         <v>0</v>
@@ -8906,7 +8969,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B19" s="15">
         <v>0</v>
@@ -8947,7 +9010,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="15">
         <v>0</v>
@@ -8988,7 +9051,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="15">
         <v>0</v>
@@ -9029,7 +9092,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="15">
         <v>0</v>
@@ -9070,7 +9133,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="15">
         <v>0</v>
@@ -9111,7 +9174,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="15">
         <v>0</v>
@@ -9152,7 +9215,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" s="15">
         <v>0</v>
@@ -9193,7 +9256,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" s="15">
         <v>0</v>
@@ -9234,7 +9297,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="15">
         <v>0</v>
@@ -9275,7 +9338,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="15">
         <v>0</v>
@@ -9316,7 +9379,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="15">
         <v>0</v>
@@ -9357,7 +9420,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="15">
         <v>0</v>
@@ -9398,7 +9461,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="15">
         <v>0</v>
@@ -9439,7 +9502,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="15">
         <v>0</v>
@@ -9480,7 +9543,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="15">
         <v>0</v>
@@ -9562,7 +9625,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="15">
         <v>0</v>
@@ -9603,7 +9666,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" s="15">
         <v>0</v>
@@ -9644,7 +9707,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="15">
         <v>0</v>
@@ -9685,7 +9748,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="15">
         <v>0</v>
@@ -9726,7 +9789,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B39" s="15">
         <v>0</v>
@@ -9773,7 +9836,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -9786,8 +9849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="K37" sqref="K37"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -10459,7 +10522,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B17" s="19">
         <v>0</v>
@@ -10500,7 +10563,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="B18" s="19">
         <v>0</v>
@@ -10541,7 +10604,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="B19" s="19">
         <v>3840000</v>
@@ -10582,7 +10645,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
@@ -10623,7 +10686,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B21" s="19">
         <v>0</v>
@@ -10664,7 +10727,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" s="19">
         <v>2720000</v>
@@ -10705,7 +10768,7 @@
     </row>
     <row r="23" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="21">
         <v>6560000</v>
@@ -10746,7 +10809,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="19">
         <v>11370000</v>
@@ -10787,7 +10850,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B25" s="19">
         <v>0</v>
@@ -10828,7 +10891,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B26" s="19">
         <v>0</v>
@@ -10869,7 +10932,7 @@
     </row>
     <row r="27" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="21">
         <v>60000</v>
@@ -10910,7 +10973,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B28" s="19">
         <v>0</v>
@@ -10951,7 +11014,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B29" s="19">
         <v>60000</v>
@@ -10992,7 +11055,7 @@
     </row>
     <row r="30" spans="1:13" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B30" s="21">
         <v>120000</v>
@@ -11033,7 +11096,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B31" s="19">
         <v>2000000</v>
@@ -11074,7 +11137,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B32" s="19">
         <v>120000</v>
@@ -11115,7 +11178,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B33" s="19">
         <v>24500000</v>
@@ -11197,7 +11260,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="19">
         <v>12200000</v>
@@ -11238,7 +11301,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" s="19">
         <v>20000000</v>
@@ -11279,7 +11342,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="19">
         <v>1300000</v>
@@ -11320,7 +11383,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="19">
         <v>33500000</v>
@@ -11361,7 +11424,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="19">
         <v>82510000</v>
@@ -11410,7 +11473,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="24" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -12142,7 +12205,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2">
         <v>5610000</v>
@@ -12183,7 +12246,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -12905,7 +12968,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B18" s="15">
         <v>0</v>
@@ -12946,7 +13009,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -13673,7 +13736,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B18" s="3">
         <v>82510000</v>
@@ -13740,7 +13803,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="17" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="32"/>
@@ -14559,7 +14622,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -15377,7 +15440,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B19" s="7">
         <v>5610000</v>
@@ -15436,7 +15499,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -15449,8 +15512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -16200,7 +16263,7 @@
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B19" s="15">
         <v>0</v>
@@ -16247,7 +16310,7 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -16278,7 +16341,7 @@
     </row>
     <row r="25" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -17068,7 +17131,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" s="4">
         <v>82510000</v>
@@ -17139,7 +17202,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -17150,7 +17213,7 @@
     </row>
     <row r="24" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -18212,7 +18275,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/data/MATERIALS_MUNICIPAL_WASTE_STREAM_1960_TO_2015.XLSX
+++ b/data/MATERIALS_MUNICIPAL_WASTE_STREAM_1960_TO_2015.XLSX
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William Nicholas\Documents\GitHub\lmop-data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E7E0EA-2DE1-4C3E-8272-204D13458B9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5C7B53-A112-4129-9AC6-A40DB09192DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="895" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" tabRatio="895" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials generated" sheetId="1" r:id="rId1"/>
     <sheet name="Materials recycled" sheetId="2" r:id="rId2"/>
-    <sheet name="Material combusted" sheetId="16" r:id="rId3"/>
+    <sheet name="Materials combusted" sheetId="16" r:id="rId3"/>
     <sheet name="Materials landfilled" sheetId="3" r:id="rId4"/>
     <sheet name="Products generated durable good" sheetId="4" r:id="rId5"/>
     <sheet name="Products recycled durable good" sheetId="5" r:id="rId6"/>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:M23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3869,7 +3869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -12259,8 +12259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:L18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
